--- a/approvers-init-script/src/excelFiles/aisExcelFile.xlsx
+++ b/approvers-init-script/src/excelFiles/aisExcelFile.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t xml:space="preserve">COMMANDERS</t>
   </si>
@@ -31,31 +31,22 @@
     <t xml:space="preserve">SUPER_SECURITY</t>
   </si>
   <si>
-    <t xml:space="preserve">T366566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T458962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T754456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T256987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T955136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T114785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T897454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T637995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T110236</t>
+    <t xml:space="preserve">arlie_rutherford40@leonardo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vicky82@leonardo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asdsadsad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tianna.rice@leonardo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sadsadsad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amelia_lynch@leonardo.com</t>
   </si>
 </sst>
 </file>
@@ -65,7 +56,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -90,6 +81,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
@@ -144,7 +142,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -153,11 +151,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -181,12 +183,12 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.86"/>
   </cols>
@@ -202,43 +204,51 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="3"/>
+      <c r="E6" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="arlie_rutherford40@leonardo.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="vicky82@leonardo.com"/>
+    <hyperlink ref="A3" r:id="rId3" display="tianna.rice@leonardo.com"/>
+    <hyperlink ref="C6" r:id="rId4" display="amelia_lynch@leonardo.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/approvers-init-script/src/excelFiles/aisExcelFile.xlsx
+++ b/approvers-init-script/src/excelFiles/aisExcelFile.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t xml:space="preserve">COMMANDERS</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t xml:space="preserve">SUPER_SECURITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BULK-SERVICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADMIN</t>
   </si>
   <si>
     <t xml:space="preserve">arlie_rutherford40@leonardo.com</t>
@@ -87,15 +93,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -142,7 +148,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -151,15 +157,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -183,17 +193,19 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.31"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -203,44 +215,50 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="E6" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -251,7 +269,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/approvers-init-script/src/excelFiles/aisExcelFile.xlsx
+++ b/approvers-init-script/src/excelFiles/aisExcelFile.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t xml:space="preserve">COMMANDERS</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">SUPER_SECURITY</t>
   </si>
   <si>
-    <t xml:space="preserve">BULK-SERVICE</t>
+    <t xml:space="preserve">BULK</t>
   </si>
   <si>
     <t xml:space="preserve">ADMIN</t>
@@ -62,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -104,6 +104,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Cambria"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,7 +154,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -166,6 +172,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -193,13 +203,13 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.31"/>
@@ -232,6 +242,12 @@
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -240,6 +256,9 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -258,17 +277,20 @@
       <c r="C6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="arlie_rutherford40@leonardo.com"/>
     <hyperlink ref="B2" r:id="rId2" display="vicky82@leonardo.com"/>
-    <hyperlink ref="A3" r:id="rId3" display="tianna.rice@leonardo.com"/>
-    <hyperlink ref="C6" r:id="rId4" display="amelia_lynch@leonardo.com"/>
+    <hyperlink ref="D2" r:id="rId3" display="vicky82@leonardo.com"/>
+    <hyperlink ref="E2" r:id="rId4" display="vicky82@leonardo.com"/>
+    <hyperlink ref="A3" r:id="rId5" display="tianna.rice@leonardo.com"/>
+    <hyperlink ref="D3" r:id="rId6" display="tianna.rice@leonardo.com"/>
+    <hyperlink ref="C6" r:id="rId7" display="amelia_lynch@leonardo.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
